--- a/WeissRatings.xlsx
+++ b/WeissRatings.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shivaky\Documents\Personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB50D00E-9692-4C20-8B93-8401FEC4F978}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEF3BB8-FDC0-4C36-907F-22CDF06D2ED3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{D7248F3D-ED6A-4591-B3B4-2B47F9A8373D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="1" xr2:uid="{D7248F3D-ED6A-4591-B3B4-2B47F9A8373D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="All" sheetId="1" r:id="rId1"/>
+    <sheet name="Categories" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="66">
   <si>
     <t>Rating</t>
   </si>
@@ -239,6 +240,15 @@
   </si>
   <si>
     <t>FYI</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>Store of Value</t>
+  </si>
+  <si>
+    <t>Privacy</t>
   </si>
 </sst>
 </file>
@@ -279,7 +289,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,6 +425,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -561,6 +577,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -875,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF91298-5268-48B3-9E72-8CBC9E4672A0}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,7 +1395,7 @@
       <c r="I16" s="27"/>
       <c r="J16" s="27"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
@@ -1388,7 +1407,7 @@
       <c r="I17" s="27"/>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>62</v>
       </c>
@@ -1420,7 +1439,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="31"/>
       <c r="B19" s="4" t="s">
         <v>19</v>
@@ -1450,7 +1469,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>61</v>
       </c>
@@ -1461,7 +1480,7 @@
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>53</v>
       </c>
@@ -1472,7 +1491,7 @@
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>54</v>
       </c>
@@ -1482,6 +1501,9 @@
       <c r="E24" s="29"/>
       <c r="F24" s="29"/>
       <c r="G24" s="29"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K32" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1495,4 +1517,428 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC07C424-ACAF-425E-A817-83EFC50EAC48}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>10</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>8</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>11</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>12</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>